--- a/Template/Example/Логины.xlsx
+++ b/Template/Example/Логины.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Логины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Дата</t>
   </si>
@@ -45,29 +45,38 @@
     <t>Логин</t>
   </si>
   <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Загружен</t>
+  </si>
+  <si>
+    <t>08.02.2023</t>
+  </si>
+  <si>
+    <t>ivanov_s</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>zakon</t>
+    <t>zakonov@test.test</t>
   </si>
   <si>
     <t>Юрьевич</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Законов</t>
-  </si>
-  <si>
-    <t>zakonov@test.test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +88,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -164,14 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,67 +459,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
